--- a/content/labview/exper/870 EVO 7700.xlsx
+++ b/content/labview/exper/870 EVO 7700.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\blog\content\labview\exper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0615238A-7AA5-47AD-8FC9-EACF694B2FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842BBCEF-8D75-4878-8EDB-E922E68F9C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3180" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="14580" yWindow="6975" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lvtemporary_634440" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>512 B</t>
   </si>
@@ -46,23 +46,14 @@
     <t>8 MB</t>
   </si>
   <si>
-    <t>1 Thread</t>
-  </si>
-  <si>
-    <t>2 Threads</t>
-  </si>
-  <si>
-    <t>3 Threads</t>
-  </si>
-  <si>
-    <t>4 Threads</t>
+    <t>Threads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +188,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Poppins UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Poppins UI"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +378,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -539,9 +547,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,11 +918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,157 +930,170 @@
     <col min="2" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="6">
         <v>94.675600000000003</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="6">
         <v>125.005</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="6">
         <v>70.0441</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="6">
         <v>89.041200000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="6">
         <v>356.69</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="6">
         <v>105.697</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="6">
         <v>153.52099999999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="6">
         <v>185.32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="6">
         <v>400.14299999999997</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="6">
         <v>323.52199999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="6">
         <v>379.24799999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="6">
         <v>411.00099999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="6">
         <v>394.28699999999998</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="6">
         <v>445.065</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="6">
         <v>311.04599999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="6">
         <v>410.39600000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="6">
         <v>461.77600000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="6">
         <v>403.30399999999997</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="6">
         <v>439.51499999999999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="7">
         <v>523.096</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="6">
         <v>484.779</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="6">
         <v>499.46</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="7">
         <v>531.29600000000005</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="7">
         <v>531.76700000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="6">
         <v>462.56</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="7">
         <v>530.173</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="7">
         <v>531.63300000000004</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="7">
         <v>531.52599999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="6">
         <v>475.75200000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="7">
         <v>529.21</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="7">
         <v>530.33100000000002</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="7">
         <v>530.13800000000003</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
